--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H2">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I2">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J2">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>15.10385286108952</v>
+        <v>16.975865187267</v>
       </c>
       <c r="R2">
-        <v>15.10385286108952</v>
+        <v>67.903460749068</v>
       </c>
       <c r="S2">
-        <v>0.0006881480359723803</v>
+        <v>0.0006942606760134495</v>
       </c>
       <c r="T2">
-        <v>0.0006881480359723803</v>
+        <v>0.0003485188343758851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H3">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I3">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J3">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>1085.844781116016</v>
+        <v>1174.535089885675</v>
       </c>
       <c r="R3">
-        <v>1085.844781116016</v>
+        <v>7047.210539314049</v>
       </c>
       <c r="S3">
-        <v>0.04947227441686985</v>
+        <v>0.04803487283329596</v>
       </c>
       <c r="T3">
-        <v>0.04947227441686985</v>
+        <v>0.03617025665068029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H4">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I4">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J4">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>1521.093895335773</v>
+        <v>1566.846358546662</v>
       </c>
       <c r="R4">
-        <v>1521.093895335773</v>
+        <v>9401.078151279969</v>
       </c>
       <c r="S4">
-        <v>0.06930269953181886</v>
+        <v>0.06407919714806273</v>
       </c>
       <c r="T4">
-        <v>0.06930269953181886</v>
+        <v>0.04825163199367076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H5">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I5">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J5">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>1153.654309747924</v>
+        <v>1207.413057490157</v>
       </c>
       <c r="R5">
-        <v>1153.654309747924</v>
+        <v>7244.478344940942</v>
       </c>
       <c r="S5">
-        <v>0.05256175061724211</v>
+        <v>0.04937948059044033</v>
       </c>
       <c r="T5">
-        <v>0.05256175061724211</v>
+        <v>0.03718274621923173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H6">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I6">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J6">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>40.94255221375261</v>
+        <v>52.58039114423902</v>
       </c>
       <c r="R6">
-        <v>40.94255221375261</v>
+        <v>315.4823468654341</v>
       </c>
       <c r="S6">
-        <v>0.001865387404969602</v>
+        <v>0.002150376284104313</v>
       </c>
       <c r="T6">
-        <v>0.001865387404969602</v>
+        <v>0.001619233225859094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.256648250557729</v>
+        <v>8.407864500000001</v>
       </c>
       <c r="H7">
-        <v>8.256648250557729</v>
+        <v>16.815729</v>
       </c>
       <c r="I7">
-        <v>0.185160909335466</v>
+        <v>0.1746412504254716</v>
       </c>
       <c r="J7">
-        <v>0.185160909335466</v>
+        <v>0.1287445241256281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>247.3744313859255</v>
+        <v>251.9275723655303</v>
       </c>
       <c r="R7">
-        <v>247.3744313859255</v>
+        <v>1007.710289462121</v>
       </c>
       <c r="S7">
-        <v>0.01127064932859319</v>
+        <v>0.01030306289355485</v>
       </c>
       <c r="T7">
-        <v>0.01127064932859319</v>
+        <v>0.005172137201810359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H8">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I8">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J8">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>32.12363548487996</v>
+        <v>39.21915016335467</v>
       </c>
       <c r="R8">
-        <v>32.12363548487996</v>
+        <v>235.314900980128</v>
       </c>
       <c r="S8">
-        <v>0.001463587924916941</v>
+        <v>0.001603942621169412</v>
       </c>
       <c r="T8">
-        <v>0.001463587924916941</v>
+        <v>0.001207768707164114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H9">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I9">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J9">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>2309.429406028654</v>
+        <v>2713.515190784311</v>
       </c>
       <c r="R9">
-        <v>2309.429406028654</v>
+        <v>24421.6367170588</v>
       </c>
       <c r="S9">
-        <v>0.1052201265856903</v>
+        <v>0.1109744257476619</v>
       </c>
       <c r="T9">
-        <v>0.1052201265856903</v>
+        <v>0.1253456048968384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H10">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I10">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J10">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>3235.139158295387</v>
+        <v>3619.867496640981</v>
       </c>
       <c r="R10">
-        <v>3235.139158295387</v>
+        <v>32578.80746976882</v>
       </c>
       <c r="S10">
-        <v>0.1473964741548547</v>
+        <v>0.1480414475241057</v>
       </c>
       <c r="T10">
-        <v>0.1473964741548547</v>
+        <v>0.1672128029921664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H11">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I11">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J11">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>2453.650129059176</v>
+        <v>2789.47278907587</v>
       </c>
       <c r="R11">
-        <v>2453.650129059176</v>
+        <v>25105.25510168283</v>
       </c>
       <c r="S11">
-        <v>0.1117909802753237</v>
+        <v>0.1140808579062897</v>
       </c>
       <c r="T11">
-        <v>0.1117909802753237</v>
+        <v>0.1288543197684933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H12">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I12">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J12">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>87.07868351415995</v>
+        <v>121.4758855107183</v>
       </c>
       <c r="R12">
-        <v>87.07868351415995</v>
+        <v>1093.282969596464</v>
       </c>
       <c r="S12">
-        <v>0.003967399946652228</v>
+        <v>0.00496799011205986</v>
       </c>
       <c r="T12">
-        <v>0.003967399946652228</v>
+        <v>0.005611344429333754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.5606556265575</v>
+        <v>19.42459466666667</v>
       </c>
       <c r="H13">
-        <v>17.5606556265575</v>
+        <v>58.273784</v>
       </c>
       <c r="I13">
-        <v>0.393809553909568</v>
+        <v>0.4034717140832388</v>
       </c>
       <c r="J13">
-        <v>0.393809553909568</v>
+        <v>0.4461555362886522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>526.1284081092201</v>
+        <v>582.0254332783027</v>
       </c>
       <c r="R13">
-        <v>526.1284081092201</v>
+        <v>3492.152599669816</v>
       </c>
       <c r="S13">
-        <v>0.02397098502213017</v>
+        <v>0.02380305017195233</v>
       </c>
       <c r="T13">
-        <v>0.02397098502213017</v>
+        <v>0.0179236954946563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H14">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I14">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J14">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>7.666055277757609</v>
+        <v>9.650479258227332</v>
       </c>
       <c r="R14">
-        <v>7.666055277757609</v>
+        <v>57.902875549364</v>
       </c>
       <c r="S14">
-        <v>0.000349273852940862</v>
+        <v>0.0003946749211166024</v>
       </c>
       <c r="T14">
-        <v>0.000349273852940862</v>
+        <v>0.0002971901942973247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H15">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I15">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J15">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>551.1273309967563</v>
+        <v>667.702435072572</v>
       </c>
       <c r="R15">
-        <v>551.1273309967563</v>
+        <v>6009.32191565315</v>
       </c>
       <c r="S15">
-        <v>0.02510996325799482</v>
+        <v>0.027306976041316</v>
       </c>
       <c r="T15">
-        <v>0.02510996325799482</v>
+        <v>0.03084322722773216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H16">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I16">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J16">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>772.0407495721942</v>
+        <v>890.724455995632</v>
       </c>
       <c r="R16">
-        <v>772.0407495721942</v>
+        <v>8016.520103960687</v>
       </c>
       <c r="S16">
-        <v>0.03517501993662998</v>
+        <v>0.03642789078138273</v>
       </c>
       <c r="T16">
-        <v>0.03517501993662998</v>
+        <v>0.04114529968815434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H17">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I17">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J17">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>585.5444826753246</v>
+        <v>686.3929784363183</v>
       </c>
       <c r="R17">
-        <v>585.5444826753246</v>
+        <v>6177.536805926866</v>
       </c>
       <c r="S17">
-        <v>0.02667804628615945</v>
+        <v>0.0280713617811666</v>
       </c>
       <c r="T17">
-        <v>0.02667804628615945</v>
+        <v>0.03170660085900423</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H18">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I18">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J18">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>20.78064924028025</v>
+        <v>29.89102284504245</v>
       </c>
       <c r="R18">
-        <v>20.78064924028025</v>
+        <v>269.0192056053821</v>
       </c>
       <c r="S18">
-        <v>0.0009467890804054247</v>
+        <v>0.001222450902985381</v>
       </c>
       <c r="T18">
-        <v>0.0009467890804054247</v>
+        <v>0.001380758195945134</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.19071361988959</v>
+        <v>4.779722333333333</v>
       </c>
       <c r="H19">
-        <v>4.19071361988959</v>
+        <v>14.339167</v>
       </c>
       <c r="I19">
-        <v>0.09397958119032909</v>
+        <v>0.09928046354456428</v>
       </c>
       <c r="J19">
-        <v>0.09397958119032909</v>
+        <v>0.1097834790137799</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>125.5564446204202</v>
+        <v>143.2163712935638</v>
       </c>
       <c r="R19">
-        <v>125.5564446204202</v>
+        <v>859.2982277613829</v>
       </c>
       <c r="S19">
-        <v>0.00572048877619856</v>
+        <v>0.005857109116596978</v>
       </c>
       <c r="T19">
-        <v>0.00572048877619856</v>
+        <v>0.004410402848646731</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H20">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I20">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J20">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>6.866158835374423</v>
+        <v>8.622024336900665</v>
       </c>
       <c r="R20">
-        <v>6.866158835374423</v>
+        <v>51.73214602140399</v>
       </c>
       <c r="S20">
-        <v>0.0003128296972098866</v>
+        <v>0.0003526142779003044</v>
       </c>
       <c r="T20">
-        <v>0.0003128296972098866</v>
+        <v>0.0002655185322257712</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H21">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I21">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J21">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>493.621250569249</v>
+        <v>596.5451550082943</v>
       </c>
       <c r="R21">
-        <v>493.621250569249</v>
+        <v>5368.906395074649</v>
       </c>
       <c r="S21">
-        <v>0.0224899234134194</v>
+        <v>0.02439686213455864</v>
       </c>
       <c r="T21">
-        <v>0.0224899234134194</v>
+        <v>0.02755625380566975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H22">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I22">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J22">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>691.483979945262</v>
+        <v>795.7996418177509</v>
       </c>
       <c r="R22">
-        <v>691.483979945262</v>
+        <v>7162.196776359757</v>
       </c>
       <c r="S22">
-        <v>0.03150476551129298</v>
+        <v>0.03254575782765157</v>
       </c>
       <c r="T22">
-        <v>0.03150476551129298</v>
+        <v>0.03676043083123543</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H23">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I23">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J23">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>524.4472257969344</v>
+        <v>613.2438406839028</v>
       </c>
       <c r="R23">
-        <v>524.4472257969344</v>
+        <v>5519.194566155126</v>
       </c>
       <c r="S23">
-        <v>0.0238943885194397</v>
+        <v>0.02507978702102509</v>
       </c>
       <c r="T23">
-        <v>0.0238943885194397</v>
+        <v>0.02832761740963997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H24">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I24">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J24">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>18.6123414476217</v>
+        <v>26.70552617426689</v>
       </c>
       <c r="R24">
-        <v>18.6123414476217</v>
+        <v>240.349735568402</v>
       </c>
       <c r="S24">
-        <v>0.0008479986086877364</v>
+        <v>0.001092173886309374</v>
       </c>
       <c r="T24">
-        <v>0.0008479986086877364</v>
+        <v>0.001233610316157581</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.75344349932023</v>
+        <v>4.270345666666667</v>
       </c>
       <c r="H25">
-        <v>3.75344349932023</v>
+        <v>12.811037</v>
       </c>
       <c r="I25">
-        <v>0.08417350362799834</v>
+        <v>0.08870011011424613</v>
       </c>
       <c r="J25">
-        <v>0.08417350362799834</v>
+        <v>0.09808381558247128</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>112.4555537800488</v>
+        <v>127.9537529375022</v>
       </c>
       <c r="R25">
-        <v>112.4555537800488</v>
+        <v>767.7225176250129</v>
       </c>
       <c r="S25">
-        <v>0.005123597877948653</v>
+        <v>0.005232914966801154</v>
       </c>
       <c r="T25">
-        <v>0.005123597877948653</v>
+        <v>0.003940384687542775</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H26">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I26">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J26">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>10.55289087705061</v>
+        <v>11.81389781547267</v>
       </c>
       <c r="R26">
-        <v>10.55289087705061</v>
+        <v>70.883386892836</v>
       </c>
       <c r="S26">
-        <v>0.0004808012364567875</v>
+        <v>0.000483152086402986</v>
       </c>
       <c r="T26">
-        <v>0.0004808012364567875</v>
+        <v>0.0003638134949822151</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H27">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I27">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J27">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>758.6674466388863</v>
+        <v>817.3861761699276</v>
       </c>
       <c r="R27">
-        <v>758.6674466388863</v>
+        <v>7356.475585529349</v>
       </c>
       <c r="S27">
-        <v>0.03456571764583982</v>
+        <v>0.03342858069215987</v>
       </c>
       <c r="T27">
-        <v>0.03456571764583982</v>
+        <v>0.037757579185219</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H28">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I28">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J28">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>1062.771071650148</v>
+        <v>1090.404675592018</v>
       </c>
       <c r="R28">
-        <v>1062.771071650148</v>
+        <v>9813.642080328164</v>
       </c>
       <c r="S28">
-        <v>0.04842101100762149</v>
+        <v>0.04459419763609802</v>
       </c>
       <c r="T28">
-        <v>0.04842101100762149</v>
+        <v>0.05036914261936277</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H29">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I29">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J29">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>806.0451960554115</v>
+        <v>840.2667154163815</v>
       </c>
       <c r="R29">
-        <v>806.0451960554115</v>
+        <v>7562.400438747434</v>
       </c>
       <c r="S29">
-        <v>0.03672429966525056</v>
+        <v>0.03436432437706555</v>
       </c>
       <c r="T29">
-        <v>0.03672429966525056</v>
+        <v>0.03881450160155663</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H30">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I30">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J30">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>28.60609737881883</v>
+        <v>36.59191217785757</v>
       </c>
       <c r="R30">
-        <v>28.60609737881883</v>
+        <v>329.327209600718</v>
       </c>
       <c r="S30">
-        <v>0.001303325046206047</v>
+        <v>0.001496496667768018</v>
       </c>
       <c r="T30">
-        <v>0.001303325046206047</v>
+        <v>0.001690292865078757</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.76882659012088</v>
+        <v>5.851227666666666</v>
       </c>
       <c r="H31">
-        <v>5.76882659012088</v>
+        <v>17.553683</v>
       </c>
       <c r="I31">
-        <v>0.1293698295980145</v>
+        <v>0.1215368915889143</v>
       </c>
       <c r="J31">
-        <v>0.1293698295980145</v>
+        <v>0.1343944448966279</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>172.8377126152569</v>
+        <v>175.3222332997111</v>
       </c>
       <c r="R31">
-        <v>172.8377126152569</v>
+        <v>1051.933399798267</v>
       </c>
       <c r="S31">
-        <v>0.007874674996639772</v>
+        <v>0.007170140129419888</v>
       </c>
       <c r="T31">
-        <v>0.007874674996639772</v>
+        <v>0.005399115130428545</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H32">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I32">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J32">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>9.258905287917928</v>
+        <v>10.922795564957</v>
       </c>
       <c r="R32">
-        <v>9.258905287917928</v>
+        <v>43.691182259828</v>
       </c>
       <c r="S32">
-        <v>0.0004218458394512854</v>
+        <v>0.0004467087449876602</v>
       </c>
       <c r="T32">
-        <v>0.0004218458394512854</v>
+        <v>0.0002242477739090581</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H33">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I33">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J33">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>665.6403553581715</v>
+        <v>755.7321249412581</v>
       </c>
       <c r="R33">
-        <v>665.6403553581715</v>
+        <v>4534.392749647549</v>
       </c>
       <c r="S33">
-        <v>0.03032730174323486</v>
+        <v>0.03090711961711023</v>
       </c>
       <c r="T33">
-        <v>0.03032730174323486</v>
+        <v>0.02327305940340189</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H34">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I34">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J34">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>932.4550788776777</v>
+        <v>1008.1573025768</v>
       </c>
       <c r="R34">
-        <v>932.4550788776777</v>
+        <v>6048.943815460799</v>
       </c>
       <c r="S34">
-        <v>0.04248367201823085</v>
+        <v>0.04123053303579798</v>
       </c>
       <c r="T34">
-        <v>0.04248367201823085</v>
+        <v>0.03104658915044403</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H35">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I35">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J35">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>707.2086895438573</v>
+        <v>776.8868239668136</v>
       </c>
       <c r="R35">
-        <v>707.2086895438573</v>
+        <v>4661.320943800882</v>
       </c>
       <c r="S35">
-        <v>0.0322212004584571</v>
+        <v>0.03177228174489146</v>
       </c>
       <c r="T35">
-        <v>0.0322212004584571</v>
+        <v>0.02392452643892206</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H36">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I36">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J36">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>25.09844452797619</v>
+        <v>33.83184638063567</v>
       </c>
       <c r="R36">
-        <v>25.09844452797619</v>
+        <v>202.991078283814</v>
       </c>
       <c r="S36">
-        <v>0.001143512550521673</v>
+        <v>0.001383618465385841</v>
       </c>
       <c r="T36">
-        <v>0.001143512550521673</v>
+        <v>0.001041864629751584</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.06145848020746</v>
+        <v>5.4098795</v>
       </c>
       <c r="H37">
-        <v>5.06145848020746</v>
+        <v>10.819759</v>
       </c>
       <c r="I37">
-        <v>0.1135066223386243</v>
+        <v>0.1123695702435648</v>
       </c>
       <c r="J37">
-        <v>0.1135066223386243</v>
+        <v>0.08283820009284057</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>151.6445142785651</v>
+        <v>162.0979749643977</v>
       </c>
       <c r="R37">
-        <v>151.6445142785651</v>
+        <v>648.3918998575909</v>
       </c>
       <c r="S37">
-        <v>0.006909089728728499</v>
+        <v>0.006629308635391672</v>
       </c>
       <c r="T37">
-        <v>0.006909089728728499</v>
+        <v>0.00332791269641194</v>
       </c>
     </row>
   </sheetData>
